--- a/natmiOut/OldD2/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H2">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I2">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J2">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.56589620910647</v>
+        <v>1.6605755</v>
       </c>
       <c r="N2">
-        <v>1.56589620910647</v>
+        <v>3.321151</v>
       </c>
       <c r="O2">
-        <v>0.4479725869439832</v>
+        <v>0.4183476510362441</v>
       </c>
       <c r="P2">
-        <v>0.4479725869439832</v>
+        <v>0.3376807885245403</v>
       </c>
       <c r="Q2">
-        <v>6.786848047202774</v>
+        <v>7.605742442942334</v>
       </c>
       <c r="R2">
-        <v>6.786848047202774</v>
+        <v>45.634454657654</v>
       </c>
       <c r="S2">
-        <v>0.03570973254428209</v>
+        <v>0.03410079196780193</v>
       </c>
       <c r="T2">
-        <v>0.03570973254428209</v>
+        <v>0.02767959935702077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H3">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I3">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J3">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.203679166430238</v>
+        <v>0.08815566666666667</v>
       </c>
       <c r="N3">
-        <v>0.203679166430238</v>
+        <v>0.264467</v>
       </c>
       <c r="O3">
-        <v>0.05826866593183248</v>
+        <v>0.02220899686616725</v>
       </c>
       <c r="P3">
-        <v>0.05826866593183248</v>
+        <v>0.02688990205465503</v>
       </c>
       <c r="Q3">
-        <v>0.8827785295755576</v>
+        <v>0.4037692327464445</v>
       </c>
       <c r="R3">
-        <v>0.8827785295755576</v>
+        <v>3.633923094718</v>
       </c>
       <c r="S3">
-        <v>0.004644834386703329</v>
+        <v>0.001810323017401432</v>
       </c>
       <c r="T3">
-        <v>0.004644834386703329</v>
+        <v>0.002204157716151181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H4">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I4">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J4">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.536288265139416</v>
+        <v>0.3906076666666667</v>
       </c>
       <c r="N4">
-        <v>0.536288265139416</v>
+        <v>1.171823</v>
       </c>
       <c r="O4">
-        <v>0.1534216891803396</v>
+        <v>0.09840552255934656</v>
       </c>
       <c r="P4">
-        <v>0.1534216891803396</v>
+        <v>0.1191460775650347</v>
       </c>
       <c r="Q4">
-        <v>2.324360288908352</v>
+        <v>1.789055245549111</v>
       </c>
       <c r="R4">
-        <v>2.324360288908352</v>
+        <v>16.101497209942</v>
       </c>
       <c r="S4">
-        <v>0.01222987219931604</v>
+        <v>0.008021334038728454</v>
       </c>
       <c r="T4">
-        <v>0.01222987219931604</v>
+        <v>0.009766370501474384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H5">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I5">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J5">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.779176926621076</v>
+        <v>0.569855</v>
       </c>
       <c r="N5">
-        <v>0.779176926621076</v>
+        <v>1.709565</v>
       </c>
       <c r="O5">
-        <v>0.2229074324821822</v>
+        <v>0.143563180765499</v>
       </c>
       <c r="P5">
-        <v>0.2229074324821822</v>
+        <v>0.1738214423957103</v>
       </c>
       <c r="Q5">
-        <v>3.377079127026707</v>
+        <v>2.610041133223334</v>
       </c>
       <c r="R5">
-        <v>3.377079127026707</v>
+        <v>23.49037019901</v>
       </c>
       <c r="S5">
-        <v>0.01776886583702208</v>
+        <v>0.01170227237895041</v>
       </c>
       <c r="T5">
-        <v>0.01776886583702208</v>
+        <v>0.01424809479448095</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.33416212883961</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H6">
-        <v>4.33416212883961</v>
+        <v>13.740554</v>
       </c>
       <c r="I6">
-        <v>0.07971410212372532</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J6">
-        <v>0.07971410212372532</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.410477361129697</v>
+        <v>0.847826</v>
       </c>
       <c r="N6">
-        <v>0.410477361129697</v>
+        <v>2.543478</v>
       </c>
       <c r="O6">
-        <v>0.1174296254616625</v>
+        <v>0.2135922248566564</v>
       </c>
       <c r="P6">
-        <v>0.1174296254616625</v>
+        <v>0.2586102398339674</v>
       </c>
       <c r="Q6">
-        <v>1.779075433354353</v>
+        <v>3.883199645201333</v>
       </c>
       <c r="R6">
-        <v>1.779075433354353</v>
+        <v>34.948796806812</v>
       </c>
       <c r="S6">
-        <v>0.009360797156401781</v>
+        <v>0.01741055317924035</v>
       </c>
       <c r="T6">
-        <v>0.009360797156401781</v>
+        <v>0.02119820869734513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.7869505606232</v>
+        <v>4.580184666666667</v>
       </c>
       <c r="H7">
-        <v>21.7869505606232</v>
+        <v>13.740554</v>
       </c>
       <c r="I7">
-        <v>0.4007065611131276</v>
+        <v>0.08151304754152323</v>
       </c>
       <c r="J7">
-        <v>0.4007065611131276</v>
+        <v>0.08196971902951242</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56589620910647</v>
+        <v>0.4123475</v>
       </c>
       <c r="N7">
-        <v>1.56589620910647</v>
+        <v>0.824695</v>
       </c>
       <c r="O7">
-        <v>0.4479725869439832</v>
+        <v>0.1038824239160867</v>
       </c>
       <c r="P7">
-        <v>0.4479725869439832</v>
+        <v>0.0838515496260922</v>
       </c>
       <c r="Q7">
-        <v>34.11610329086995</v>
+        <v>1.888627696838333</v>
       </c>
       <c r="R7">
-        <v>34.11610329086995</v>
+        <v>11.33176618103</v>
       </c>
       <c r="S7">
-        <v>0.1795055547872751</v>
+        <v>0.008467772959400646</v>
       </c>
       <c r="T7">
-        <v>0.1795055547872751</v>
+        <v>0.006873287963039995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H8">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I8">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J8">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.203679166430238</v>
+        <v>1.6605755</v>
       </c>
       <c r="N8">
-        <v>0.203679166430238</v>
+        <v>3.321151</v>
       </c>
       <c r="O8">
-        <v>0.05826866593183248</v>
+        <v>0.4183476510362441</v>
       </c>
       <c r="P8">
-        <v>0.05826866593183248</v>
+        <v>0.3376807885245403</v>
       </c>
       <c r="Q8">
-        <v>4.43754792924454</v>
+        <v>37.38987110705633</v>
       </c>
       <c r="R8">
-        <v>4.43754792924454</v>
+        <v>224.339226642338</v>
       </c>
       <c r="S8">
-        <v>0.02334863674619425</v>
+        <v>0.1676396782943657</v>
       </c>
       <c r="T8">
-        <v>0.02334863674619425</v>
+        <v>0.1360730605878357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H9">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I9">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J9">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.536288265139416</v>
+        <v>0.08815566666666667</v>
       </c>
       <c r="N9">
-        <v>0.536288265139416</v>
+        <v>0.264467</v>
       </c>
       <c r="O9">
-        <v>0.1534216891803396</v>
+        <v>0.02220899686616725</v>
       </c>
       <c r="P9">
-        <v>0.1534216891803396</v>
+        <v>0.02688990205465503</v>
       </c>
       <c r="Q9">
-        <v>11.68408591883484</v>
+        <v>1.984931738438444</v>
       </c>
       <c r="R9">
-        <v>11.68408591883484</v>
+        <v>17.864385645946</v>
       </c>
       <c r="S9">
-        <v>0.06147707747162102</v>
+        <v>0.008899557773690713</v>
       </c>
       <c r="T9">
-        <v>0.06147707747162102</v>
+        <v>0.01083565128911126</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H10">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I10">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J10">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.779176926621076</v>
+        <v>0.3906076666666667</v>
       </c>
       <c r="N10">
-        <v>0.779176926621076</v>
+        <v>1.171823</v>
       </c>
       <c r="O10">
-        <v>0.2229074324821822</v>
+        <v>0.09840552255934656</v>
       </c>
       <c r="P10">
-        <v>0.2229074324821822</v>
+        <v>0.1191460775650347</v>
       </c>
       <c r="Q10">
-        <v>16.97588917827171</v>
+        <v>8.795005291897111</v>
       </c>
       <c r="R10">
-        <v>16.97588917827171</v>
+        <v>79.155047627074</v>
       </c>
       <c r="S10">
-        <v>0.08932047071649191</v>
+        <v>0.03943292164632854</v>
       </c>
       <c r="T10">
-        <v>0.08932047071649191</v>
+        <v>0.04801153036318417</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>21.7869505606232</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H11">
-        <v>21.7869505606232</v>
+        <v>67.548638</v>
       </c>
       <c r="I11">
-        <v>0.4007065611131276</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J11">
-        <v>0.4007065611131276</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.410477361129697</v>
+        <v>0.569855</v>
       </c>
       <c r="N11">
-        <v>0.410477361129697</v>
+        <v>1.709565</v>
       </c>
       <c r="O11">
-        <v>0.1174296254616625</v>
+        <v>0.143563180765499</v>
       </c>
       <c r="P11">
-        <v>0.1174296254616625</v>
+        <v>0.1738214423957103</v>
       </c>
       <c r="Q11">
-        <v>8.943049973187785</v>
+        <v>12.83097636916333</v>
       </c>
       <c r="R11">
-        <v>8.943049973187785</v>
+        <v>115.47878732247</v>
       </c>
       <c r="S11">
-        <v>0.04705482139154536</v>
+        <v>0.05752843449420745</v>
       </c>
       <c r="T11">
-        <v>0.04705482139154536</v>
+        <v>0.07004371129883689</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.4196689419225</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H12">
-        <v>27.4196689419225</v>
+        <v>67.548638</v>
       </c>
       <c r="I12">
-        <v>0.5043037674320546</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J12">
-        <v>0.5043037674320546</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.56589620910647</v>
+        <v>0.847826</v>
       </c>
       <c r="N12">
-        <v>1.56589620910647</v>
+        <v>2.543478</v>
       </c>
       <c r="O12">
-        <v>0.4479725869439832</v>
+        <v>0.2135922248566564</v>
       </c>
       <c r="P12">
-        <v>0.4479725869439832</v>
+        <v>0.2586102398339674</v>
       </c>
       <c r="Q12">
-        <v>42.93635565111086</v>
+        <v>19.08983052032933</v>
       </c>
       <c r="R12">
-        <v>42.93635565111086</v>
+        <v>171.808474682964</v>
       </c>
       <c r="S12">
-        <v>0.2259142633021343</v>
+        <v>0.08559037387315356</v>
       </c>
       <c r="T12">
-        <v>0.2259142633021343</v>
+        <v>0.1042105089463946</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.4196689419225</v>
+        <v>22.51621266666666</v>
       </c>
       <c r="H13">
-        <v>27.4196689419225</v>
+        <v>67.548638</v>
       </c>
       <c r="I13">
-        <v>0.5043037674320546</v>
+        <v>0.4007185838838188</v>
       </c>
       <c r="J13">
-        <v>0.5043037674320546</v>
+        <v>0.4029635833960003</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.203679166430238</v>
+        <v>0.4123475</v>
       </c>
       <c r="N13">
-        <v>0.203679166430238</v>
+        <v>0.824695</v>
       </c>
       <c r="O13">
-        <v>0.05826866593183248</v>
+        <v>0.1038824239160867</v>
       </c>
       <c r="P13">
-        <v>0.05826866593183248</v>
+        <v>0.0838515496260922</v>
       </c>
       <c r="Q13">
-        <v>5.584815313883861</v>
+        <v>9.284504002568331</v>
       </c>
       <c r="R13">
-        <v>5.584815313883861</v>
+        <v>55.70702401540999</v>
       </c>
       <c r="S13">
-        <v>0.02938510775266293</v>
+        <v>0.04162761780207282</v>
       </c>
       <c r="T13">
-        <v>0.02938510775266293</v>
+        <v>0.03378912091063766</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H14">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I14">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J14">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.536288265139416</v>
+        <v>1.6605755</v>
       </c>
       <c r="N14">
-        <v>0.536288265139416</v>
+        <v>3.321151</v>
       </c>
       <c r="O14">
-        <v>0.1534216891803396</v>
+        <v>0.4183476510362441</v>
       </c>
       <c r="P14">
-        <v>0.1534216891803396</v>
+        <v>0.3376807885245403</v>
       </c>
       <c r="Q14">
-        <v>14.70484668756074</v>
+        <v>46.61241627981867</v>
       </c>
       <c r="R14">
-        <v>14.70484668756074</v>
+        <v>279.674497678912</v>
       </c>
       <c r="S14">
-        <v>0.07737113585943496</v>
+        <v>0.2089895000519849</v>
       </c>
       <c r="T14">
-        <v>0.07737113585943496</v>
+        <v>0.1696366945590292</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H15">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I15">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J15">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.779176926621076</v>
+        <v>0.08815566666666667</v>
       </c>
       <c r="N15">
-        <v>0.779176926621076</v>
+        <v>0.264467</v>
       </c>
       <c r="O15">
-        <v>0.2229074324821822</v>
+        <v>0.02220899686616725</v>
       </c>
       <c r="P15">
-        <v>0.2229074324821822</v>
+        <v>0.02688990205465503</v>
       </c>
       <c r="Q15">
-        <v>21.36477337513454</v>
+        <v>2.474532854478223</v>
       </c>
       <c r="R15">
-        <v>21.36477337513454</v>
+        <v>22.270795690304</v>
       </c>
       <c r="S15">
-        <v>0.1124130579893708</v>
+        <v>0.01109471306990624</v>
       </c>
       <c r="T15">
-        <v>0.1124130579893708</v>
+        <v>0.01350836131809207</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>27.4196689419225</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H16">
-        <v>27.4196689419225</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I16">
-        <v>0.5043037674320546</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J16">
-        <v>0.5043037674320546</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.410477361129697</v>
+        <v>0.3906076666666667</v>
       </c>
       <c r="N16">
-        <v>0.410477361129697</v>
+        <v>1.171823</v>
       </c>
       <c r="O16">
-        <v>0.1174296254616625</v>
+        <v>0.09840552255934656</v>
       </c>
       <c r="P16">
-        <v>0.1174296254616625</v>
+        <v>0.1191460775650347</v>
       </c>
       <c r="Q16">
-        <v>11.25515335033026</v>
+        <v>10.96437178601956</v>
       </c>
       <c r="R16">
-        <v>11.25515335033026</v>
+        <v>98.67934607417601</v>
       </c>
       <c r="S16">
-        <v>0.05922020252845154</v>
+        <v>0.04915940345569293</v>
       </c>
       <c r="T16">
-        <v>0.05922020252845154</v>
+        <v>0.05985400252148888</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.830553093209579</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H17">
-        <v>0.830553093209579</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I17">
-        <v>0.01527556933109236</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J17">
-        <v>0.01527556933109236</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.56589620910647</v>
+        <v>0.569855</v>
       </c>
       <c r="N17">
-        <v>1.56589620910647</v>
+        <v>1.709565</v>
       </c>
       <c r="O17">
-        <v>0.4479725869439832</v>
+        <v>0.143563180765499</v>
       </c>
       <c r="P17">
-        <v>0.4479725869439832</v>
+        <v>0.1738214423957103</v>
       </c>
       <c r="Q17">
-        <v>1.300559940118533</v>
+        <v>15.99585112458667</v>
       </c>
       <c r="R17">
-        <v>1.300559940118533</v>
+        <v>143.96266012128</v>
       </c>
       <c r="S17">
-        <v>0.006843036310291616</v>
+        <v>0.07171833593361088</v>
       </c>
       <c r="T17">
-        <v>0.006843036310291616</v>
+        <v>0.0873206173804825</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.830553093209579</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H18">
-        <v>0.830553093209579</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I18">
-        <v>0.01527556933109236</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J18">
-        <v>0.01527556933109236</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.203679166430238</v>
+        <v>0.847826</v>
       </c>
       <c r="N18">
-        <v>0.203679166430238</v>
+        <v>2.543478</v>
       </c>
       <c r="O18">
-        <v>0.05826866593183248</v>
+        <v>0.2135922248566564</v>
       </c>
       <c r="P18">
-        <v>0.05826866593183248</v>
+        <v>0.2586102398339674</v>
       </c>
       <c r="Q18">
-        <v>0.1691663617009828</v>
+        <v>23.79850747217067</v>
       </c>
       <c r="R18">
-        <v>0.1691663617009828</v>
+        <v>214.186567249536</v>
       </c>
       <c r="S18">
-        <v>0.0008900870462719666</v>
+        <v>0.1067020029327628</v>
       </c>
       <c r="T18">
-        <v>0.0008900870462719666</v>
+        <v>0.1299149603868088</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.830553093209579</v>
+        <v>28.07003733333334</v>
       </c>
       <c r="H19">
-        <v>0.830553093209579</v>
+        <v>84.21011200000001</v>
       </c>
       <c r="I19">
-        <v>0.01527556933109236</v>
+        <v>0.499559396435762</v>
       </c>
       <c r="J19">
-        <v>0.01527556933109236</v>
+        <v>0.5023581450998098</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.536288265139416</v>
+        <v>0.4123475</v>
       </c>
       <c r="N19">
-        <v>0.536288265139416</v>
+        <v>0.824695</v>
       </c>
       <c r="O19">
-        <v>0.1534216891803396</v>
+        <v>0.1038824239160867</v>
       </c>
       <c r="P19">
-        <v>0.1534216891803396</v>
+        <v>0.0838515496260922</v>
       </c>
       <c r="Q19">
-        <v>0.4454158774635408</v>
+        <v>11.57460971930667</v>
       </c>
       <c r="R19">
-        <v>0.4454158774635408</v>
+        <v>69.44765831584</v>
       </c>
       <c r="S19">
-        <v>0.002343603649967581</v>
+        <v>0.05189544099180424</v>
       </c>
       <c r="T19">
-        <v>0.002343603649967581</v>
+        <v>0.04212350893390833</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.830553093209579</v>
+        <v>0.08402066666666667</v>
       </c>
       <c r="H20">
-        <v>0.830553093209579</v>
+        <v>0.252062</v>
       </c>
       <c r="I20">
-        <v>0.01527556933109236</v>
+        <v>0.001495306651348368</v>
       </c>
       <c r="J20">
-        <v>0.01527556933109236</v>
+        <v>0.001503684008520833</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.779176926621076</v>
+        <v>1.6605755</v>
       </c>
       <c r="N20">
-        <v>0.779176926621076</v>
+        <v>3.321151</v>
       </c>
       <c r="O20">
-        <v>0.2229074324821822</v>
+        <v>0.4183476510362441</v>
       </c>
       <c r="P20">
-        <v>0.2229074324821822</v>
+        <v>0.3376807885245403</v>
       </c>
       <c r="Q20">
-        <v>0.6471478065626678</v>
+        <v>0.1395226605603334</v>
       </c>
       <c r="R20">
-        <v>0.6471478065626678</v>
+        <v>0.837135963362</v>
       </c>
       <c r="S20">
-        <v>0.003405037939297364</v>
+        <v>0.0006255580251704619</v>
       </c>
       <c r="T20">
-        <v>0.003405037939297364</v>
+        <v>0.0005077652016890564</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,681 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.252062</v>
+      </c>
+      <c r="I21">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J21">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.08815566666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.264467</v>
+      </c>
+      <c r="O21">
+        <v>0.02220899686616725</v>
+      </c>
+      <c r="P21">
+        <v>0.02688990205465503</v>
+      </c>
+      <c r="Q21">
+        <v>0.007406897883777779</v>
+      </c>
+      <c r="R21">
+        <v>0.066662080954</v>
+      </c>
+      <c r="S21">
+        <v>3.320926073375496E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.043391571027625E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.252062</v>
+      </c>
+      <c r="I22">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J22">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.3906076666666667</v>
+      </c>
+      <c r="N22">
+        <v>1.171823</v>
+      </c>
+      <c r="O22">
+        <v>0.09840552255934656</v>
+      </c>
+      <c r="P22">
+        <v>0.1191460775650347</v>
+      </c>
+      <c r="Q22">
+        <v>0.03281911655844445</v>
+      </c>
+      <c r="R22">
+        <v>0.295372049026</v>
+      </c>
+      <c r="S22">
+        <v>0.0001471464324124028</v>
+      </c>
+      <c r="T22">
+        <v>0.0001791580515125254</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.252062</v>
+      </c>
+      <c r="I23">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J23">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.569855</v>
+      </c>
+      <c r="N23">
+        <v>1.709565</v>
+      </c>
+      <c r="O23">
+        <v>0.143563180765499</v>
+      </c>
+      <c r="P23">
+        <v>0.1738214423957103</v>
+      </c>
+      <c r="Q23">
+        <v>0.04787959700333334</v>
+      </c>
+      <c r="R23">
+        <v>0.43091637303</v>
+      </c>
+      <c r="S23">
+        <v>0.0002146709790873788</v>
+      </c>
+      <c r="T23">
+        <v>0.0002613725232684547</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.252062</v>
+      </c>
+      <c r="I24">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J24">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.847826</v>
+      </c>
+      <c r="N24">
+        <v>2.543478</v>
+      </c>
+      <c r="O24">
+        <v>0.2135922248566564</v>
+      </c>
+      <c r="P24">
+        <v>0.2586102398339674</v>
+      </c>
+      <c r="Q24">
+        <v>0.07123490573733333</v>
+      </c>
+      <c r="R24">
+        <v>0.6411141516360001</v>
+      </c>
+      <c r="S24">
+        <v>0.0003193858745044546</v>
+      </c>
+      <c r="T24">
+        <v>0.0003888680820780741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.08402066666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.252062</v>
+      </c>
+      <c r="I25">
+        <v>0.001495306651348368</v>
+      </c>
+      <c r="J25">
+        <v>0.001503684008520833</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4123475</v>
+      </c>
+      <c r="N25">
+        <v>0.824695</v>
+      </c>
+      <c r="O25">
+        <v>0.1038824239160867</v>
+      </c>
+      <c r="P25">
+        <v>0.0838515496260922</v>
+      </c>
+      <c r="Q25">
+        <v>0.03464571184833334</v>
+      </c>
+      <c r="R25">
+        <v>0.20787427109</v>
+      </c>
+      <c r="S25">
+        <v>0.0001553360794399153</v>
+      </c>
+      <c r="T25">
+        <v>0.0001260862342624458</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.939134</v>
+      </c>
+      <c r="H26">
+        <v>1.878268</v>
+      </c>
+      <c r="I26">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J26">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.6605755</v>
+      </c>
+      <c r="N26">
+        <v>3.321151</v>
+      </c>
+      <c r="O26">
+        <v>0.4183476510362441</v>
+      </c>
+      <c r="P26">
+        <v>0.3376807885245403</v>
+      </c>
+      <c r="Q26">
+        <v>1.559502911617</v>
+      </c>
+      <c r="R26">
+        <v>6.238011646468</v>
+      </c>
+      <c r="S26">
+        <v>0.006992122696921034</v>
+      </c>
+      <c r="T26">
+        <v>0.003783668818965574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.939134</v>
+      </c>
+      <c r="H27">
+        <v>1.878268</v>
+      </c>
+      <c r="I27">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J27">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.08815566666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.264467</v>
+      </c>
+      <c r="O27">
+        <v>0.02220899686616725</v>
+      </c>
+      <c r="P27">
+        <v>0.02688990205465503</v>
+      </c>
+      <c r="Q27">
+        <v>0.08278998385933334</v>
+      </c>
+      <c r="R27">
+        <v>0.496739903156</v>
+      </c>
+      <c r="S27">
+        <v>0.00037119374443511</v>
+      </c>
+      <c r="T27">
+        <v>0.0003012978155902482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.939134</v>
+      </c>
+      <c r="H28">
+        <v>1.878268</v>
+      </c>
+      <c r="I28">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J28">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.3906076666666667</v>
+      </c>
+      <c r="N28">
+        <v>1.171823</v>
+      </c>
+      <c r="O28">
+        <v>0.09840552255934656</v>
+      </c>
+      <c r="P28">
+        <v>0.1191460775650347</v>
+      </c>
+      <c r="Q28">
+        <v>0.3668329404273334</v>
+      </c>
+      <c r="R28">
+        <v>2.200997642564</v>
+      </c>
+      <c r="S28">
+        <v>0.001644716986184227</v>
+      </c>
+      <c r="T28">
+        <v>0.001335016127374725</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.939134</v>
+      </c>
+      <c r="H29">
+        <v>1.878268</v>
+      </c>
+      <c r="I29">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J29">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.569855</v>
+      </c>
+      <c r="N29">
+        <v>1.709565</v>
+      </c>
+      <c r="O29">
+        <v>0.143563180765499</v>
+      </c>
+      <c r="P29">
+        <v>0.1738214423957103</v>
+      </c>
+      <c r="Q29">
+        <v>0.5351702055700001</v>
+      </c>
+      <c r="R29">
+        <v>3.21102123342</v>
+      </c>
+      <c r="S29">
+        <v>0.002399466979642862</v>
+      </c>
+      <c r="T29">
+        <v>0.00194764639864158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.830553093209579</v>
-      </c>
-      <c r="H21">
-        <v>0.830553093209579</v>
-      </c>
-      <c r="I21">
-        <v>0.01527556933109236</v>
-      </c>
-      <c r="J21">
-        <v>0.01527556933109236</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.410477361129697</v>
-      </c>
-      <c r="N21">
-        <v>0.410477361129697</v>
-      </c>
-      <c r="O21">
-        <v>0.1174296254616625</v>
-      </c>
-      <c r="P21">
-        <v>0.1174296254616625</v>
-      </c>
-      <c r="Q21">
-        <v>0.3409232419787753</v>
-      </c>
-      <c r="R21">
-        <v>0.3409232419787753</v>
-      </c>
-      <c r="S21">
-        <v>0.001793804385263835</v>
-      </c>
-      <c r="T21">
-        <v>0.001793804385263835</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.939134</v>
+      </c>
+      <c r="H30">
+        <v>1.878268</v>
+      </c>
+      <c r="I30">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J30">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.847826</v>
+      </c>
+      <c r="N30">
+        <v>2.543478</v>
+      </c>
+      <c r="O30">
+        <v>0.2135922248566564</v>
+      </c>
+      <c r="P30">
+        <v>0.2586102398339674</v>
+      </c>
+      <c r="Q30">
+        <v>0.796222222684</v>
+      </c>
+      <c r="R30">
+        <v>4.777333336104</v>
+      </c>
+      <c r="S30">
+        <v>0.003569908996995181</v>
+      </c>
+      <c r="T30">
+        <v>0.00289769372134086</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.939134</v>
+      </c>
+      <c r="H31">
+        <v>1.878268</v>
+      </c>
+      <c r="I31">
+        <v>0.01671366548754749</v>
+      </c>
+      <c r="J31">
+        <v>0.01120486846615677</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.4123475</v>
+      </c>
+      <c r="N31">
+        <v>0.824695</v>
+      </c>
+      <c r="O31">
+        <v>0.1038824239160867</v>
+      </c>
+      <c r="P31">
+        <v>0.0838515496260922</v>
+      </c>
+      <c r="Q31">
+        <v>0.387249557065</v>
+      </c>
+      <c r="R31">
+        <v>1.54899822826</v>
+      </c>
+      <c r="S31">
+        <v>0.001736256083369076</v>
+      </c>
+      <c r="T31">
+        <v>0.0009395455842437798</v>
       </c>
     </row>
   </sheetData>
